--- a/dados_posgraduacao/tabelas_posgrad.xlsx
+++ b/dados_posgraduacao/tabelas_posgrad.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16488" windowHeight="9852" tabRatio="817" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16488" windowHeight="9852" tabRatio="817"/>
   </bookViews>
   <sheets>
     <sheet name="tabela38" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tabela41!$A$1:$D$90</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="461">
   <si>
     <t>unidades/País / Continente</t>
   </si>
@@ -1320,21 +1319,9 @@
     <t>PNPD</t>
   </si>
   <si>
-    <t>CNPq (mestrado e Doutorado)</t>
-  </si>
-  <si>
-    <t>476³</t>
-  </si>
-  <si>
     <t>UnB</t>
   </si>
   <si>
-    <t>Programa de Bolsas de Monitoria II</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Unidade/Curso</t>
   </si>
   <si>
@@ -1432,6 +1419,12 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>CNPq (mestrado e Doutorado)³</t>
+  </si>
+  <si>
+    <t>Programa de Bolsas de Monitoria II*</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1791,7 +1784,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s">
         <v>242</v>
@@ -1825,10 +1818,10 @@
         <v>2006</v>
       </c>
       <c r="C3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,7 +1832,7 @@
         <v>2008</v>
       </c>
       <c r="C4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D4">
         <v>2008</v>
@@ -1853,7 +1846,7 @@
         <v>1972</v>
       </c>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D5">
         <v>1981</v>
@@ -1867,7 +1860,7 @@
         <v>1995</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D6">
         <v>2003</v>
@@ -1881,7 +1874,7 @@
         <v>1994</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D7">
         <v>2008</v>
@@ -1903,7 +1896,7 @@
         <v>2008</v>
       </c>
       <c r="C9" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D9">
         <v>2008</v>
@@ -1917,7 +1910,7 @@
         <v>1998</v>
       </c>
       <c r="C10" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D10">
         <v>1998</v>
@@ -1931,7 +1924,7 @@
         <v>2012</v>
       </c>
       <c r="C11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D11">
         <v>2012</v>
@@ -1953,7 +1946,7 @@
         <v>1993</v>
       </c>
       <c r="C13" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D13">
         <v>2007</v>
@@ -1967,7 +1960,7 @@
         <v>1994</v>
       </c>
       <c r="C14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D14">
         <v>2008</v>
@@ -1981,7 +1974,7 @@
         <v>2007</v>
       </c>
       <c r="C15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D15">
         <v>2007</v>
@@ -1995,7 +1988,7 @@
         <v>1973</v>
       </c>
       <c r="C16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D16">
         <v>1991</v>
@@ -2020,7 +2013,7 @@
         <v>1978</v>
       </c>
       <c r="C18" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D18">
         <v>1992</v>
@@ -2042,7 +2035,7 @@
         <v>1995</v>
       </c>
       <c r="C20" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D20">
         <v>1995</v>
@@ -2056,10 +2049,10 @@
         <v>2011</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D21" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2070,7 +2063,7 @@
         <v>2006</v>
       </c>
       <c r="C22" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D22">
         <v>2006</v>
@@ -2106,7 +2099,7 @@
         <v>1997</v>
       </c>
       <c r="C25" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D25">
         <v>2004</v>
@@ -2120,7 +2113,7 @@
         <v>2002</v>
       </c>
       <c r="C26" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D26">
         <v>2005</v>
@@ -2134,7 +2127,7 @@
         <v>2002</v>
       </c>
       <c r="C27" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D27">
         <v>2002</v>
@@ -2156,7 +2149,7 @@
         <v>1974</v>
       </c>
       <c r="C29" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D29">
         <v>2003</v>
@@ -2170,7 +2163,7 @@
         <v>2007</v>
       </c>
       <c r="C30" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D30">
         <v>2007</v>
@@ -2198,7 +2191,7 @@
         <v>2011</v>
       </c>
       <c r="C32" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D32">
         <v>2011</v>
@@ -2220,7 +2213,7 @@
         <v>1975</v>
       </c>
       <c r="C34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D34">
         <v>2003</v>
@@ -2234,10 +2227,10 @@
         <v>2012</v>
       </c>
       <c r="C35" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D35" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,7 +2241,7 @@
         <v>1976</v>
       </c>
       <c r="C36" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D36">
         <v>2003</v>
@@ -2287,10 +2280,10 @@
         <v>225</v>
       </c>
       <c r="B39" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C39" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D39">
         <v>2015</v>
@@ -2304,7 +2297,7 @@
         <v>2006</v>
       </c>
       <c r="C40" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D40">
         <v>2014</v>
@@ -2318,7 +2311,7 @@
         <v>2010</v>
       </c>
       <c r="C41" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D41">
         <v>2010</v>
@@ -2332,10 +2325,10 @@
         <v>2010</v>
       </c>
       <c r="C42" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D42" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2346,7 +2339,7 @@
         <v>2010</v>
       </c>
       <c r="C43" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D43">
         <v>2010</v>
@@ -2371,13 +2364,13 @@
         <v>332</v>
       </c>
       <c r="B45" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C45">
         <v>2003</v>
       </c>
       <c r="D45" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2396,10 +2389,10 @@
         <v>2008</v>
       </c>
       <c r="C47" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D47" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2410,7 +2403,7 @@
         <v>1992</v>
       </c>
       <c r="C48" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D48">
         <v>1999</v>
@@ -2435,10 +2428,10 @@
         <v>2012</v>
       </c>
       <c r="C50" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D50" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2449,7 +2442,7 @@
         <v>1999</v>
       </c>
       <c r="C51" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D51">
         <v>2017</v>
@@ -2463,7 +2456,7 @@
         <v>1969</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D52">
         <v>1990</v>
@@ -2477,7 +2470,7 @@
         <v>1976</v>
       </c>
       <c r="C53" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D53">
         <v>1991</v>
@@ -2491,7 +2484,7 @@
         <v>2008</v>
       </c>
       <c r="C54" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D54">
         <v>2008</v>
@@ -2516,7 +2509,7 @@
         <v>1975</v>
       </c>
       <c r="C56" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D56">
         <v>1988</v>
@@ -2530,7 +2523,7 @@
         <v>1989</v>
       </c>
       <c r="C57" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D57">
         <v>1995</v>
@@ -2552,7 +2545,7 @@
         <v>1976</v>
       </c>
       <c r="C59" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D59">
         <v>1994</v>
@@ -2566,7 +2559,7 @@
         <v>1989</v>
       </c>
       <c r="C60" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D60">
         <v>2010</v>
@@ -2580,10 +2573,10 @@
         <v>2011</v>
       </c>
       <c r="C61" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D61" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2594,7 +2587,7 @@
         <v>1976</v>
       </c>
       <c r="C62" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D62">
         <v>2000</v>
@@ -2608,10 +2601,10 @@
         <v>2008</v>
       </c>
       <c r="C63" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D63" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2622,7 +2615,7 @@
         <v>1975</v>
       </c>
       <c r="C64" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D64">
         <v>1998</v>
@@ -2636,7 +2629,7 @@
         <v>1971</v>
       </c>
       <c r="C65" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D65">
         <v>1975</v>
@@ -2650,7 +2643,7 @@
         <v>1976</v>
       </c>
       <c r="C66" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D66">
         <v>1996</v>
@@ -2683,10 +2676,10 @@
         <v>2004</v>
       </c>
       <c r="C69" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D69" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2708,7 +2701,7 @@
         <v>2000</v>
       </c>
       <c r="C71" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D71">
         <v>2009</v>
@@ -2722,7 +2715,7 @@
         <v>1998</v>
       </c>
       <c r="C72" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D72">
         <v>1998</v>
@@ -2736,7 +2729,7 @@
         <v>1990</v>
       </c>
       <c r="C73" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D73">
         <v>2002</v>
@@ -2750,7 +2743,7 @@
         <v>2006</v>
       </c>
       <c r="C74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D74">
         <v>2006</v>
@@ -2764,7 +2757,7 @@
         <v>2006</v>
       </c>
       <c r="C75" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D75">
         <v>2006</v>
@@ -2778,7 +2771,7 @@
         <v>2006</v>
       </c>
       <c r="C76" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D76">
         <v>2006</v>
@@ -2792,7 +2785,7 @@
         <v>1974</v>
       </c>
       <c r="C77" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D77">
         <v>1991</v>
@@ -2806,7 +2799,7 @@
         <v>2012</v>
       </c>
       <c r="D78" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2817,7 +2810,7 @@
         <v>1984</v>
       </c>
       <c r="C79" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D79">
         <v>2002</v>
@@ -2831,7 +2824,7 @@
         <v>2007</v>
       </c>
       <c r="C80" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D80">
         <v>2012</v>
@@ -2859,7 +2852,7 @@
         <v>2003</v>
       </c>
       <c r="C82" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D82">
         <v>2008</v>
@@ -2873,7 +2866,7 @@
         <v>1970</v>
       </c>
       <c r="C83" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D83">
         <v>1984</v>
@@ -2887,7 +2880,7 @@
         <v>1995</v>
       </c>
       <c r="C84" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D84">
         <v>2001</v>
@@ -2912,7 +2905,7 @@
         <v>1988</v>
       </c>
       <c r="C86" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D86">
         <v>2005</v>
@@ -2923,13 +2916,13 @@
         <v>374</v>
       </c>
       <c r="B87" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C87">
         <v>2007</v>
       </c>
       <c r="D87" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2952,9 +2945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -10077,7 +10068,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10087,104 +10078,56 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" t="s">
         <v>448</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>449</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>450</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>451</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>452</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>453</v>
-      </c>
-      <c r="H1" t="s">
-        <v>454</v>
-      </c>
-      <c r="I1" t="s">
-        <v>455</v>
-      </c>
-      <c r="J1" t="s">
-        <v>456</v>
-      </c>
-      <c r="K1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>419</v>
       </c>
-      <c r="B2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K2" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>420</v>
       </c>
-      <c r="B3" t="s">
-        <v>246</v>
-      </c>
       <c r="C3">
         <v>130</v>
       </c>
-      <c r="D3" t="s">
-        <v>246</v>
-      </c>
       <c r="E3">
         <v>141</v>
       </c>
-      <c r="F3" t="s">
-        <v>246</v>
-      </c>
       <c r="G3">
         <v>93</v>
-      </c>
-      <c r="H3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" t="s">
-        <v>246</v>
       </c>
       <c r="K3">
         <v>31</v>
@@ -10194,67 +10137,31 @@
       <c r="A4" t="s">
         <v>421</v>
       </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>246</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" t="s">
-        <v>246</v>
-      </c>
       <c r="I4">
         <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>246</v>
-      </c>
-      <c r="K4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>422</v>
       </c>
-      <c r="B5" t="s">
-        <v>246</v>
-      </c>
       <c r="C5">
         <v>1581</v>
       </c>
-      <c r="D5" t="s">
-        <v>246</v>
-      </c>
       <c r="E5">
         <v>1575</v>
       </c>
-      <c r="F5" t="s">
-        <v>246</v>
-      </c>
       <c r="G5">
         <v>1560</v>
       </c>
-      <c r="H5" t="s">
-        <v>246</v>
-      </c>
       <c r="I5">
         <v>1561</v>
-      </c>
-      <c r="J5" t="s">
-        <v>246</v>
       </c>
       <c r="K5">
         <v>1367</v>
@@ -10264,148 +10171,43 @@
       <c r="A6" t="s">
         <v>423</v>
       </c>
-      <c r="B6" t="s">
-        <v>246</v>
-      </c>
       <c r="C6">
         <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>424</v>
       </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
       <c r="C7">
         <v>161</v>
       </c>
-      <c r="D7" t="s">
-        <v>246</v>
-      </c>
       <c r="E7">
         <v>107</v>
       </c>
-      <c r="F7" t="s">
-        <v>246</v>
-      </c>
       <c r="G7">
         <v>95</v>
       </c>
-      <c r="H7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I7" t="s">
-        <v>246</v>
-      </c>
-      <c r="J7" t="s">
-        <v>246</v>
-      </c>
       <c r="K7">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" t="s">
-        <v>246</v>
-      </c>
-      <c r="H8" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" t="s">
-        <v>246</v>
-      </c>
-      <c r="K8" t="s">
-        <v>426</v>
+        <v>459</v>
+      </c>
+      <c r="K8">
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J9" t="s">
-        <v>246</v>
-      </c>
-      <c r="K9" t="s">
-        <v>246</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B10" t="s">
-        <v>246</v>
+        <v>460</v>
       </c>
       <c r="C10">
         <v>23</v>
@@ -10427,12 +10229,6 @@
       </c>
       <c r="I10">
         <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>429</v>
-      </c>
-      <c r="K10" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -10457,7 +10253,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s">
         <v>377</v>
@@ -10466,10 +10262,10 @@
         <v>378</v>
       </c>
       <c r="D1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -17159,40 +16955,40 @@
         <v>241</v>
       </c>
       <c r="B1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" t="s">
         <v>433</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>434</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>435</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>436</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>437</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>438</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>439</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>440</v>
-      </c>
-      <c r="J1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L1" t="s">
-        <v>443</v>
-      </c>
-      <c r="M1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -19367,8 +19163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19380,7 +19176,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B1" t="s">
         <v>411</v>
@@ -20732,13 +20528,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B1" t="s">
         <v>385</v>
       </c>
       <c r="C1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D1" t="s">
         <v>417</v>
@@ -20843,13 +20639,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/dados_posgraduacao/tabelas_posgrad.xlsx
+++ b/dados_posgraduacao/tabelas_posgrad.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAI-DPO\GITHUB\ANUARIO\anuario2020\dados_posgraduacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\anuario2020\dados_posgraduacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16488" windowHeight="9852" tabRatio="817" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="9855" tabRatio="817" firstSheet="4" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="tabela38" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tabela41!$A$1:$D$90</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="463">
   <si>
     <t>unidades/País / Continente</t>
   </si>
@@ -1437,7 +1436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1783,13 +1782,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>430</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>293</v>
       </c>
@@ -1845,7 +1844,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>295</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>300</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>301</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>302</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>303</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>304</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>305</v>
       </c>
@@ -2001,7 +2000,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>306</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>307</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>308</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>309</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>310</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>311</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -2126,7 +2125,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>315</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>316</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>317</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>318</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>319</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>321</v>
       </c>
@@ -2212,7 +2211,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>322</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>323</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>324</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>325</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>326</v>
       </c>
@@ -2282,7 +2281,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>225</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>327</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>328</v>
       </c>
@@ -2324,7 +2323,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -2338,7 +2337,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>330</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>331</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>332</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>333</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>335</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>336</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>337</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>338</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>340</v>
       </c>
@@ -2469,7 +2468,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>341</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>342</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>343</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>344</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>345</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>346</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>347</v>
       </c>
@@ -2558,7 +2557,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>348</v>
       </c>
@@ -2572,7 +2571,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>349</v>
       </c>
@@ -2586,7 +2585,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>351</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>352</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>353</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>354</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>355</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>356</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>357</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>358</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>359</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>360</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>361</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>362</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>363</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>364</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>365</v>
       </c>
@@ -2809,7 +2808,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>366</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>367</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>368</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>369</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>370</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>371</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>372</v>
       </c>
@@ -2904,7 +2903,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>373</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>374</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -2956,9 +2955,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>131</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4510</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0.53493061321314195</v>
       </c>
@@ -2995,15 +2994,15 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -3123,7 +3122,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -3183,7 +3182,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -3223,7 +3222,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -3283,7 +3282,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -3403,7 +3402,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>121</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -3523,7 +3522,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>128</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -3656,12 +3655,12 @@
       <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -4041,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -4136,7 +4135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4896,7 +4895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -5181,7 +5180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -5466,7 +5465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -6036,7 +6035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -6511,7 +6510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -6606,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -6701,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -7081,7 +7080,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
@@ -7366,7 +7365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>72</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
@@ -7841,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>74</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>75</v>
       </c>
@@ -8031,7 +8030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
@@ -8126,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>77</v>
       </c>
@@ -8221,7 +8220,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>78</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>79</v>
       </c>
@@ -8411,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>81</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -8696,7 +8695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>83</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>84</v>
       </c>
@@ -8886,7 +8885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>85</v>
       </c>
@@ -8981,7 +8980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -9076,7 +9075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>88</v>
       </c>
@@ -9266,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>89</v>
       </c>
@@ -9361,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>90</v>
       </c>
@@ -9456,7 +9455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>91</v>
       </c>
@@ -9551,7 +9550,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>92</v>
       </c>
@@ -9659,9 +9658,9 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -9669,7 +9668,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -9677,7 +9676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>238</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>239</v>
       </c>
@@ -9693,7 +9692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -9714,9 +9713,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>232</v>
       </c>
@@ -9724,7 +9723,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -9732,7 +9731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -9740,7 +9739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -9748,7 +9747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -9788,7 +9787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -9796,7 +9795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -9812,7 +9811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -9828,7 +9827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -9844,7 +9843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -9860,7 +9859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -9876,7 +9875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -9884,7 +9883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -9924,7 +9923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -9932,7 +9931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -9948,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -9969,9 +9968,9 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -9979,7 +9978,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -9987,7 +9986,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -9995,7 +9994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -10003,7 +10002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -10011,7 +10010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -10019,7 +10018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -10035,7 +10034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -10043,7 +10042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -10059,7 +10058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -10076,16 +10075,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.44140625" customWidth="1"/>
+    <col min="1" max="1" width="71.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>458</v>
       </c>
@@ -10120,292 +10119,103 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>419</v>
       </c>
-      <c r="B2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>420</v>
       </c>
-      <c r="B3" t="s">
-        <v>246</v>
-      </c>
       <c r="C3">
         <v>130</v>
       </c>
-      <c r="D3" t="s">
-        <v>246</v>
-      </c>
       <c r="E3">
         <v>141</v>
       </c>
-      <c r="F3" t="s">
-        <v>246</v>
-      </c>
       <c r="G3">
         <v>93</v>
       </c>
-      <c r="H3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" t="s">
-        <v>246</v>
-      </c>
       <c r="K3">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>421</v>
       </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>246</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" t="s">
-        <v>246</v>
-      </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>246</v>
-      </c>
-      <c r="K4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>422</v>
       </c>
-      <c r="B5" t="s">
-        <v>246</v>
-      </c>
       <c r="C5">
         <v>1581</v>
       </c>
-      <c r="D5" t="s">
-        <v>246</v>
-      </c>
       <c r="E5">
         <v>1575</v>
       </c>
-      <c r="F5" t="s">
-        <v>246</v>
-      </c>
       <c r="G5">
         <v>1560</v>
       </c>
-      <c r="H5" t="s">
-        <v>246</v>
-      </c>
       <c r="I5">
         <v>1561</v>
       </c>
-      <c r="J5" t="s">
-        <v>246</v>
-      </c>
       <c r="K5">
         <v>1367</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>423</v>
       </c>
-      <c r="B6" t="s">
-        <v>246</v>
-      </c>
       <c r="C6">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>424</v>
       </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
       <c r="C7">
         <v>161</v>
       </c>
-      <c r="D7" t="s">
-        <v>246</v>
-      </c>
       <c r="E7">
         <v>107</v>
       </c>
-      <c r="F7" t="s">
-        <v>246</v>
-      </c>
       <c r="G7">
         <v>95</v>
       </c>
-      <c r="H7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I7" t="s">
-        <v>246</v>
-      </c>
-      <c r="J7" t="s">
-        <v>246</v>
-      </c>
       <c r="K7">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>425</v>
       </c>
-      <c r="B8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" t="s">
-        <v>246</v>
-      </c>
-      <c r="H8" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" t="s">
-        <v>246</v>
-      </c>
       <c r="K8" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>427</v>
       </c>
-      <c r="B9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J9" t="s">
-        <v>246</v>
-      </c>
-      <c r="K9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>428</v>
-      </c>
-      <c r="B10" t="s">
-        <v>246</v>
       </c>
       <c r="C10">
         <v>23</v>
@@ -10446,16 +10256,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>430</v>
       </c>
@@ -10472,7 +10282,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -10489,7 +10299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>386</v>
       </c>
@@ -10506,7 +10316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -10523,7 +10333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -10540,7 +10350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -10557,7 +10367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -10574,7 +10384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>194</v>
       </c>
@@ -10591,7 +10401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -10608,7 +10418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -10625,7 +10435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -10642,7 +10452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>388</v>
       </c>
@@ -10659,7 +10469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>388</v>
       </c>
@@ -10676,7 +10486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -10693,7 +10503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -10710,7 +10520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -10727,7 +10537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>184</v>
       </c>
@@ -10744,7 +10554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -10761,7 +10571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -10778,7 +10588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -10795,7 +10605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>185</v>
       </c>
@@ -10812,7 +10622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -10829,7 +10639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>389</v>
       </c>
@@ -10846,7 +10656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>153</v>
       </c>
@@ -10863,7 +10673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>153</v>
       </c>
@@ -10880,7 +10690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>224</v>
       </c>
@@ -10897,7 +10707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>224</v>
       </c>
@@ -10914,7 +10724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -10931,7 +10741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -10948,7 +10758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -10965,7 +10775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -10982,7 +10792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -10999,7 +10809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -11016,7 +10826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -11033,7 +10843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -11050,7 +10860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -11067,7 +10877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -11084,7 +10894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -11101,7 +10911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>390</v>
       </c>
@@ -11118,7 +10928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>220</v>
       </c>
@@ -11135,7 +10945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>220</v>
       </c>
@@ -11152,7 +10962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -11169,7 +10979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -11186,7 +10996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -11203,7 +11013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>163</v>
       </c>
@@ -11220,7 +11030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -11237,7 +11047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -11254,7 +11064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -11271,7 +11081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -11288,7 +11098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -11305,7 +11115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -11322,7 +11132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>391</v>
       </c>
@@ -11339,7 +11149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>391</v>
       </c>
@@ -11356,7 +11166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>400</v>
       </c>
@@ -11373,7 +11183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>141</v>
       </c>
@@ -11390,7 +11200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -11407,7 +11217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>135</v>
       </c>
@@ -11424,7 +11234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>392</v>
       </c>
@@ -11441,7 +11251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -11458,7 +11268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>138</v>
       </c>
@@ -11475,7 +11285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -11492,7 +11302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>200</v>
       </c>
@@ -11509,7 +11319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -11526,7 +11336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>154</v>
       </c>
@@ -11543,7 +11353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -11560,7 +11370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>189</v>
       </c>
@@ -11577,7 +11387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -11594,7 +11404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -11611,7 +11421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>393</v>
       </c>
@@ -11628,7 +11438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -11645,7 +11455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -11662,7 +11472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -11679,7 +11489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>401</v>
       </c>
@@ -11696,7 +11506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -11713,7 +11523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -11730,7 +11540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -11747,7 +11557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -11764,7 +11574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -11781,7 +11591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -11798,7 +11608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>171</v>
       </c>
@@ -11815,7 +11625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>171</v>
       </c>
@@ -11832,7 +11642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -11849,7 +11659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>394</v>
       </c>
@@ -11866,7 +11676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -11883,7 +11693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>402</v>
       </c>
@@ -11900,7 +11710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>403</v>
       </c>
@@ -11917,7 +11727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>404</v>
       </c>
@@ -11934,7 +11744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>203</v>
       </c>
@@ -11951,7 +11761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -11968,7 +11778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>405</v>
       </c>
@@ -11985,7 +11795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -12002,7 +11812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>395</v>
       </c>
@@ -12019,7 +11829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>211</v>
       </c>
@@ -12036,7 +11846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>211</v>
       </c>
@@ -12053,7 +11863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>208</v>
       </c>
@@ -12070,7 +11880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -12087,7 +11897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -12104,7 +11914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -12121,7 +11931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>282</v>
       </c>
@@ -12138,7 +11948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>282</v>
       </c>
@@ -12155,7 +11965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>212</v>
       </c>
@@ -12172,7 +11982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>212</v>
       </c>
@@ -12189,7 +11999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>210</v>
       </c>
@@ -12206,7 +12016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>210</v>
       </c>
@@ -12223,7 +12033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>174</v>
       </c>
@@ -12240,7 +12050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>174</v>
       </c>
@@ -12257,7 +12067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>396</v>
       </c>
@@ -12274,7 +12084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -12291,7 +12101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>213</v>
       </c>
@@ -12308,7 +12118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -12325,7 +12135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -12342,7 +12152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>175</v>
       </c>
@@ -12359,7 +12169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>217</v>
       </c>
@@ -12376,7 +12186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>217</v>
       </c>
@@ -12393,7 +12203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>218</v>
       </c>
@@ -12410,7 +12220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>219</v>
       </c>
@@ -12427,7 +12237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>219</v>
       </c>
@@ -12444,7 +12254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>205</v>
       </c>
@@ -12461,7 +12271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>205</v>
       </c>
@@ -12478,7 +12288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>160</v>
       </c>
@@ -12495,7 +12305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>160</v>
       </c>
@@ -12512,7 +12322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>214</v>
       </c>
@@ -12529,7 +12339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -12546,7 +12356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>201</v>
       </c>
@@ -12563,7 +12373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>192</v>
       </c>
@@ -12580,7 +12390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>192</v>
       </c>
@@ -12597,7 +12407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>165</v>
       </c>
@@ -12614,7 +12424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>165</v>
       </c>
@@ -12631,7 +12441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>166</v>
       </c>
@@ -12648,7 +12458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>166</v>
       </c>
@@ -12665,7 +12475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>167</v>
       </c>
@@ -12682,7 +12492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>167</v>
       </c>
@@ -12699,7 +12509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -12716,7 +12526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -12733,7 +12543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>397</v>
       </c>
@@ -12750,7 +12560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>397</v>
       </c>
@@ -12767,7 +12577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>406</v>
       </c>
@@ -12784,7 +12594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>221</v>
       </c>
@@ -12801,7 +12611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>221</v>
       </c>
@@ -12818,7 +12628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>223</v>
       </c>
@@ -12835,7 +12645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>223</v>
       </c>
@@ -12852,7 +12662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>227</v>
       </c>
@@ -12869,7 +12679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>227</v>
       </c>
@@ -12886,7 +12696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>229</v>
       </c>
@@ -12903,7 +12713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>229</v>
       </c>
@@ -12920,7 +12730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>407</v>
       </c>
@@ -12937,7 +12747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -12954,7 +12764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -12971,7 +12781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>398</v>
       </c>
@@ -12988,7 +12798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>168</v>
       </c>
@@ -13005,7 +12815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>168</v>
       </c>
@@ -13022,7 +12832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>176</v>
       </c>
@@ -13039,7 +12849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>176</v>
       </c>
@@ -13056,7 +12866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>196</v>
       </c>
@@ -13073,7 +12883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>196</v>
       </c>
@@ -13090,7 +12900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -13107,7 +12917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -13124,7 +12934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>408</v>
       </c>
@@ -13141,7 +12951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>408</v>
       </c>
@@ -13158,7 +12968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>178</v>
       </c>
@@ -13175,7 +12985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>178</v>
       </c>
@@ -13192,7 +13002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>399</v>
       </c>
@@ -13206,7 +13016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>193</v>
       </c>
@@ -13223,7 +13033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>193</v>
       </c>
@@ -13253,20 +13063,20 @@
       <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>290</v>
       </c>
@@ -13280,7 +13090,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>380</v>
       </c>
@@ -13300,7 +13110,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -13326,7 +13136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>386</v>
       </c>
@@ -13352,7 +13162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -13378,7 +13188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -13404,7 +13214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>148</v>
       </c>
@@ -13430,7 +13240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -13456,7 +13266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -13482,7 +13292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -13508,7 +13318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -13534,7 +13344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -13560,7 +13370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>388</v>
       </c>
@@ -13586,7 +13396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>388</v>
       </c>
@@ -13612,7 +13422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -13638,7 +13448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -13664,7 +13474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -13690,7 +13500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>184</v>
       </c>
@@ -13716,7 +13526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>184</v>
       </c>
@@ -13742,7 +13552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>187</v>
       </c>
@@ -13768,7 +13578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>187</v>
       </c>
@@ -13794,7 +13604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>185</v>
       </c>
@@ -13820,7 +13630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -13846,7 +13656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>389</v>
       </c>
@@ -13872,7 +13682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>153</v>
       </c>
@@ -13898,7 +13708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -13924,7 +13734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -13950,7 +13760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>224</v>
       </c>
@@ -13976,7 +13786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -14002,7 +13812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>149</v>
       </c>
@@ -14028,7 +13838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -14054,7 +13864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -14080,7 +13890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -14106,7 +13916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -14132,7 +13942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -14158,7 +13968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -14184,7 +13994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>390</v>
       </c>
@@ -14210,7 +14020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>220</v>
       </c>
@@ -14236,7 +14046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>220</v>
       </c>
@@ -14262,7 +14072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -14288,7 +14098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -14314,7 +14124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>169</v>
       </c>
@@ -14340,7 +14150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -14366,7 +14176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -14392,7 +14202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -14418,7 +14228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>159</v>
       </c>
@@ -14444,7 +14254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>159</v>
       </c>
@@ -14470,7 +14280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>391</v>
       </c>
@@ -14496,7 +14306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>391</v>
       </c>
@@ -14522,7 +14332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>141</v>
       </c>
@@ -14548,7 +14358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -14574,7 +14384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -14600,7 +14410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>392</v>
       </c>
@@ -14626,7 +14436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>135</v>
       </c>
@@ -14652,7 +14462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -14678,7 +14488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -14704,7 +14514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>200</v>
       </c>
@@ -14730,7 +14540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>139</v>
       </c>
@@ -14756,7 +14566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>154</v>
       </c>
@@ -14782,7 +14592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>154</v>
       </c>
@@ -14808,7 +14618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -14834,7 +14644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -14860,7 +14670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>145</v>
       </c>
@@ -14886,7 +14696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>393</v>
       </c>
@@ -14912,7 +14722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -14938,7 +14748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>156</v>
       </c>
@@ -14964,7 +14774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -14990,7 +14800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>157</v>
       </c>
@@ -15016,7 +14826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>157</v>
       </c>
@@ -15042,7 +14852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>225</v>
       </c>
@@ -15068,7 +14878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -15094,7 +14904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -15120,7 +14930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -15146,7 +14956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>171</v>
       </c>
@@ -15172,7 +14982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>171</v>
       </c>
@@ -15198,7 +15008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -15224,7 +15034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>394</v>
       </c>
@@ -15250,7 +15060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>172</v>
       </c>
@@ -15276,7 +15086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>286</v>
       </c>
@@ -15302,7 +15112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -15328,7 +15138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>203</v>
       </c>
@@ -15348,7 +15158,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -15374,7 +15184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -15400,7 +15210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>395</v>
       </c>
@@ -15426,7 +15236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -15452,7 +15262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>211</v>
       </c>
@@ -15478,7 +15288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>208</v>
       </c>
@@ -15504,7 +15314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>208</v>
       </c>
@@ -15530,7 +15340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -15556,7 +15366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -15582,7 +15392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>282</v>
       </c>
@@ -15608,7 +15418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>282</v>
       </c>
@@ -15634,7 +15444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>212</v>
       </c>
@@ -15660,7 +15470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>212</v>
       </c>
@@ -15686,7 +15496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -15712,7 +15522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>210</v>
       </c>
@@ -15738,7 +15548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>174</v>
       </c>
@@ -15764,7 +15574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>174</v>
       </c>
@@ -15790,7 +15600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>396</v>
       </c>
@@ -15810,7 +15620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>213</v>
       </c>
@@ -15836,7 +15646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>213</v>
       </c>
@@ -15862,7 +15672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -15888,7 +15698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -15914,7 +15724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>175</v>
       </c>
@@ -15940,7 +15750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>217</v>
       </c>
@@ -15966,7 +15776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>217</v>
       </c>
@@ -15992,7 +15802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>218</v>
       </c>
@@ -16018,7 +15828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -16044,7 +15854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -16070,7 +15880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -16096,7 +15906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>205</v>
       </c>
@@ -16122,7 +15932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>160</v>
       </c>
@@ -16148,7 +15958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -16174,7 +15984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>214</v>
       </c>
@@ -16200,7 +16010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>183</v>
       </c>
@@ -16226,7 +16036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>201</v>
       </c>
@@ -16252,7 +16062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -16278,7 +16088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -16304,7 +16114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>165</v>
       </c>
@@ -16330,7 +16140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>165</v>
       </c>
@@ -16356,7 +16166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>167</v>
       </c>
@@ -16382,7 +16192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>167</v>
       </c>
@@ -16408,7 +16218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>215</v>
       </c>
@@ -16434,7 +16244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>215</v>
       </c>
@@ -16460,7 +16270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>397</v>
       </c>
@@ -16486,7 +16296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>397</v>
       </c>
@@ -16512,7 +16322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>221</v>
       </c>
@@ -16538,7 +16348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>221</v>
       </c>
@@ -16564,7 +16374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>223</v>
       </c>
@@ -16590,7 +16400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -16616,7 +16426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>227</v>
       </c>
@@ -16642,7 +16452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>227</v>
       </c>
@@ -16668,7 +16478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>229</v>
       </c>
@@ -16694,7 +16504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>229</v>
       </c>
@@ -16720,7 +16530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -16746,7 +16556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -16772,7 +16582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>398</v>
       </c>
@@ -16798,7 +16608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>168</v>
       </c>
@@ -16824,7 +16634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -16850,7 +16660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>176</v>
       </c>
@@ -16876,7 +16686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>176</v>
       </c>
@@ -16902,7 +16712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>196</v>
       </c>
@@ -16928,7 +16738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>196</v>
       </c>
@@ -16954,7 +16764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>177</v>
       </c>
@@ -16980,7 +16790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>177</v>
       </c>
@@ -17006,7 +16816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>178</v>
       </c>
@@ -17032,7 +16842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>178</v>
       </c>
@@ -17058,7 +16868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>399</v>
       </c>
@@ -17084,7 +16894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>193</v>
       </c>
@@ -17110,7 +16920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>193</v>
       </c>
@@ -17149,12 +16959,12 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.109375" customWidth="1"/>
+    <col min="1" max="1" width="71.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>241</v>
       </c>
@@ -17195,12 +17005,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -17235,12 +17045,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>248</v>
       </c>
@@ -17257,7 +17067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -17271,12 +17081,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -17293,7 +17103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>148</v>
       </c>
@@ -17322,7 +17132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -17351,7 +17161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -17377,12 +17187,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -17411,12 +17221,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -17424,7 +17234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>253</v>
       </c>
@@ -17441,12 +17251,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -17475,7 +17285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -17504,7 +17314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -17521,7 +17331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -17538,7 +17348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -17567,7 +17377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>166</v>
       </c>
@@ -17578,7 +17388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>255</v>
       </c>
@@ -17601,12 +17411,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -17635,12 +17445,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -17663,12 +17473,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -17691,12 +17501,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -17737,7 +17547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -17754,7 +17564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>260</v>
       </c>
@@ -17783,7 +17593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -17824,12 +17634,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -17870,12 +17680,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -17901,12 +17711,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -17935,7 +17745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -17964,7 +17774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -17993,12 +17803,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -18009,7 +17819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>180</v>
       </c>
@@ -18020,7 +17830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -18031,7 +17841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>265</v>
       </c>
@@ -18042,12 +17852,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -18076,7 +17886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -18105,7 +17915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>171</v>
       </c>
@@ -18122,7 +17932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -18160,7 +17970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>173</v>
       </c>
@@ -18189,7 +17999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>174</v>
       </c>
@@ -18218,7 +18028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>176</v>
       </c>
@@ -18247,7 +18057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>177</v>
       </c>
@@ -18276,7 +18086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -18302,12 +18112,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>158</v>
       </c>
@@ -18318,7 +18128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>175</v>
       </c>
@@ -18329,12 +18139,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>197</v>
       </c>
@@ -18363,7 +18173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>198</v>
       </c>
@@ -18377,7 +18187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>200</v>
       </c>
@@ -18388,7 +18198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>201</v>
       </c>
@@ -18405,12 +18215,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>270</v>
       </c>
@@ -18439,12 +18249,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>184</v>
       </c>
@@ -18473,7 +18283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -18490,7 +18300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -18501,7 +18311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -18530,7 +18340,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>273</v>
       </c>
@@ -18559,7 +18369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>189</v>
       </c>
@@ -18588,7 +18398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -18617,7 +18427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>274</v>
       </c>
@@ -18634,7 +18444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>193</v>
       </c>
@@ -18651,12 +18461,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -18667,7 +18477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>276</v>
       </c>
@@ -18696,7 +18506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>203</v>
       </c>
@@ -18713,7 +18523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>205</v>
       </c>
@@ -18742,12 +18552,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>211</v>
       </c>
@@ -18770,7 +18580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>212</v>
       </c>
@@ -18799,7 +18609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>213</v>
       </c>
@@ -18828,7 +18638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -18857,12 +18667,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -18891,7 +18701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>279</v>
       </c>
@@ -18920,7 +18730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>196</v>
       </c>
@@ -18949,12 +18759,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>208</v>
       </c>
@@ -18983,7 +18793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>214</v>
       </c>
@@ -18997,12 +18807,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>282</v>
       </c>
@@ -19031,7 +18841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>210</v>
       </c>
@@ -19060,12 +18870,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -19076,7 +18886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>284</v>
       </c>
@@ -19105,7 +18915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>218</v>
       </c>
@@ -19122,7 +18932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>219</v>
       </c>
@@ -19151,12 +18961,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>220</v>
       </c>
@@ -19185,7 +18995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>286</v>
       </c>
@@ -19193,7 +19003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>221</v>
       </c>
@@ -19222,7 +19032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>222</v>
       </c>
@@ -19233,7 +19043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>223</v>
       </c>
@@ -19262,12 +19072,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>225</v>
       </c>
@@ -19278,7 +19088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>226</v>
       </c>
@@ -19295,7 +19105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>227</v>
       </c>
@@ -19324,12 +19134,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>289</v>
       </c>
@@ -19367,18 +19177,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>445</v>
       </c>
@@ -19392,7 +19202,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19406,7 +19216,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19420,7 +19230,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19434,7 +19244,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19448,7 +19258,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19462,7 +19272,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19476,7 +19286,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19490,7 +19300,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19504,7 +19314,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19518,7 +19328,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19532,7 +19342,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19546,7 +19356,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19560,7 +19370,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19574,7 +19384,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19588,7 +19398,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19602,7 +19412,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19616,7 +19426,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19630,7 +19440,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19644,7 +19454,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -19658,7 +19468,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19672,7 +19482,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19686,7 +19496,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19700,7 +19510,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19714,7 +19524,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -19728,7 +19538,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -19742,7 +19552,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -19756,7 +19566,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -19770,7 +19580,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -19784,7 +19594,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -19798,7 +19608,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -19812,7 +19622,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19826,7 +19636,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19840,7 +19650,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -19854,7 +19664,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19868,7 +19678,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19882,7 +19692,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19896,7 +19706,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -19910,7 +19720,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -19924,7 +19734,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -19938,7 +19748,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -19952,7 +19762,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -19966,7 +19776,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -19980,7 +19790,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -19994,7 +19804,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -20008,7 +19818,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -20022,7 +19832,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -20036,7 +19846,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -20050,7 +19860,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -20064,7 +19874,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -20078,7 +19888,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -20092,7 +19902,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -20106,7 +19916,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -20120,7 +19930,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -20134,7 +19944,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -20148,7 +19958,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -20162,7 +19972,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -20176,7 +19986,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -20190,7 +20000,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -20204,7 +20014,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -20218,7 +20028,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -20232,7 +20042,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -20246,7 +20056,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -20260,7 +20070,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -20274,7 +20084,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -20288,7 +20098,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -20302,7 +20112,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -20316,7 +20126,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -20330,7 +20140,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -20344,7 +20154,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -20358,7 +20168,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -20372,7 +20182,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -20386,7 +20196,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -20400,7 +20210,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -20414,7 +20224,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -20428,7 +20238,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -20442,7 +20252,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -20456,7 +20266,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -20470,7 +20280,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -20484,7 +20294,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20498,7 +20308,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -20512,7 +20322,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -20526,7 +20336,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -20540,7 +20350,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -20554,7 +20364,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -20568,7 +20378,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -20582,7 +20392,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -20596,7 +20406,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -20610,7 +20420,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -20624,7 +20434,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -20638,7 +20448,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -20652,7 +20462,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -20666,7 +20476,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -20680,7 +20490,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -20694,7 +20504,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -20724,13 +20534,13 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>447</v>
       </c>
@@ -20744,7 +20554,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -20758,7 +20568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -20772,7 +20582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -20786,7 +20596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20800,7 +20610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -20814,7 +20624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>418</v>
       </c>
@@ -20839,9 +20649,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>459</v>
       </c>
@@ -20852,7 +20662,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>7</v>
       </c>
@@ -20864,7 +20674,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>7</v>
       </c>
@@ -20876,7 +20686,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>7</v>
       </c>
@@ -20888,7 +20698,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>6</v>
       </c>
@@ -20900,7 +20710,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>6</v>
       </c>
@@ -20912,7 +20722,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -20924,7 +20734,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -20936,7 +20746,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -20948,7 +20758,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -20960,7 +20770,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -20972,7 +20782,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -20984,7 +20794,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -20996,7 +20806,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -21008,7 +20818,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>3</v>
       </c>
@@ -21020,7 +20830,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -21032,7 +20842,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>272</v>
       </c>
@@ -21044,7 +20854,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>272</v>
       </c>
@@ -21056,7 +20866,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>272</v>
       </c>
@@ -21068,7 +20878,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
     </row>
@@ -21088,12 +20898,12 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -21119,7 +20929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -21145,7 +20955,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -21171,7 +20981,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -21197,7 +21007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -21223,7 +21033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -21249,7 +21059,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -21275,7 +21085,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -21301,7 +21111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -21327,7 +21137,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -21353,7 +21163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -21379,7 +21189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -21405,7 +21215,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -21431,7 +21241,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -21457,7 +21267,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -21483,7 +21293,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -21509,7 +21319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -21535,7 +21345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>145</v>
       </c>
@@ -21561,7 +21371,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -21587,7 +21397,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -21613,7 +21423,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -21639,7 +21449,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -21665,7 +21475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>148</v>
       </c>
@@ -21691,7 +21501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -21717,7 +21527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -21743,7 +21553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -21769,7 +21579,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -21795,7 +21605,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -21821,7 +21631,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -21847,7 +21657,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -21873,7 +21683,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -21899,7 +21709,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -21925,7 +21735,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -21951,7 +21761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -21977,7 +21787,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -22003,7 +21813,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -22029,7 +21839,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -22055,7 +21865,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -22081,7 +21891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -22107,7 +21917,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -22133,7 +21943,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -22159,7 +21969,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -22185,7 +21995,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -22211,7 +22021,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -22237,7 +22047,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -22263,7 +22073,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>163</v>
       </c>
@@ -22289,7 +22099,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -22315,7 +22125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>165</v>
       </c>
@@ -22341,7 +22151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>166</v>
       </c>
@@ -22367,7 +22177,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>167</v>
       </c>
@@ -22393,7 +22203,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>168</v>
       </c>
@@ -22419,7 +22229,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -22445,7 +22255,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>169</v>
       </c>
@@ -22471,7 +22281,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -22497,7 +22307,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>171</v>
       </c>
@@ -22523,7 +22333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -22549,7 +22359,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -22575,7 +22385,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -22601,7 +22411,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -22627,7 +22437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -22653,7 +22463,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>177</v>
       </c>
@@ -22679,7 +22489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>178</v>
       </c>
@@ -22705,7 +22515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -22731,7 +22541,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -22757,7 +22567,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>180</v>
       </c>
@@ -22783,7 +22593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>181</v>
       </c>
@@ -22809,7 +22619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>182</v>
       </c>
@@ -22835,7 +22645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>183</v>
       </c>
@@ -22861,7 +22671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>117</v>
       </c>
@@ -22887,7 +22697,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>184</v>
       </c>
@@ -22913,7 +22723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -22939,7 +22749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -22965,7 +22775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -22991,7 +22801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>188</v>
       </c>
@@ -23017,7 +22827,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>189</v>
       </c>
@@ -23043,7 +22853,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -23069,7 +22879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>191</v>
       </c>
@@ -23095,7 +22905,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>192</v>
       </c>
@@ -23121,7 +22931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>193</v>
       </c>
@@ -23147,7 +22957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>118</v>
       </c>
@@ -23173,7 +22983,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -23199,7 +23009,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>195</v>
       </c>
@@ -23225,7 +23035,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>196</v>
       </c>
@@ -23251,7 +23061,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -23277,7 +23087,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>197</v>
       </c>
@@ -23303,7 +23113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>198</v>
       </c>
@@ -23329,7 +23139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>199</v>
       </c>
@@ -23355,7 +23165,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>200</v>
       </c>
@@ -23381,7 +23191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>201</v>
       </c>
@@ -23407,7 +23217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>120</v>
       </c>
@@ -23433,7 +23243,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>202</v>
       </c>
@@ -23459,7 +23269,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>203</v>
       </c>
@@ -23485,7 +23295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>204</v>
       </c>
@@ -23511,7 +23321,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>205</v>
       </c>
@@ -23537,7 +23347,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -23563,7 +23373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -23589,7 +23399,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>207</v>
       </c>
@@ -23615,7 +23425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -23641,7 +23451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>122</v>
       </c>
@@ -23667,7 +23477,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>209</v>
       </c>
@@ -23693,7 +23503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>210</v>
       </c>
@@ -23719,7 +23529,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -23745,7 +23555,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>211</v>
       </c>
@@ -23771,7 +23581,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>212</v>
       </c>
@@ -23797,7 +23607,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>213</v>
       </c>
@@ -23823,7 +23633,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>214</v>
       </c>
@@ -23849,7 +23659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>215</v>
       </c>
@@ -23875,7 +23685,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -23901,7 +23711,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -23927,7 +23737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -23953,7 +23763,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>218</v>
       </c>
@@ -23979,7 +23789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>219</v>
       </c>
@@ -24005,7 +23815,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -24031,7 +23841,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>220</v>
       </c>
@@ -24057,7 +23867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>221</v>
       </c>
@@ -24083,7 +23893,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>222</v>
       </c>
@@ -24109,7 +23919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -24135,7 +23945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -24161,7 +23971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>224</v>
       </c>
@@ -24187,7 +23997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>127</v>
       </c>
@@ -24213,7 +24023,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>225</v>
       </c>
@@ -24239,7 +24049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>226</v>
       </c>
@@ -24265,7 +24075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>227</v>
       </c>
@@ -24291,7 +24101,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>228</v>
       </c>
@@ -24317,7 +24127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -24343,7 +24153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>229</v>
       </c>
@@ -24369,7 +24179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>230</v>
       </c>
@@ -24395,7 +24205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>92</v>
       </c>
@@ -24434,14 +24244,14 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>232</v>
       </c>
@@ -24449,7 +24259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -24457,7 +24267,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -24465,7 +24275,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -24473,7 +24283,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -24481,7 +24291,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -24489,7 +24299,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -24497,7 +24307,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -24505,7 +24315,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -24513,7 +24323,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -24521,7 +24331,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -24529,7 +24339,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -24537,7 +24347,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -24545,7 +24355,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -24553,7 +24363,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -24561,7 +24371,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -24569,7 +24379,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -24577,7 +24387,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -24585,7 +24395,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -24593,7 +24403,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -24601,7 +24411,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -24609,7 +24419,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -24617,7 +24427,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -24625,7 +24435,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -24633,7 +24443,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -24641,7 +24451,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -24649,7 +24459,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -24657,7 +24467,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -24665,7 +24475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -24673,7 +24483,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -24681,7 +24491,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
